--- a/database/sidis/expdata/3709.xlsx
+++ b/database/sidis/expdata/3709.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FDE4A-8C2B-E24E-AC85-79C8D82B8AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D0C583-F8EE-6F4F-BF17-B6B951A52EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="6620" windowWidth="28040" windowHeight="16440" xr2:uid="{C8C41E5D-5BE7-6B4A-997B-EAAF88C6DC20}"/>
+    <workbookView xWindow="300" yWindow="4480" windowWidth="28040" windowHeight="16440" xr2:uid="{C8C41E5D-5BE7-6B4A-997B-EAAF88C6DC20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -94,13 +103,16 @@
   </si>
   <si>
     <t>HERMES</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE20D61-FF7F-0B46-AC2B-00D238E0F2AD}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.46</v>
       </c>
@@ -583,8 +598,11 @@
       <c r="S2">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.51</v>
       </c>
@@ -643,8 +661,11 @@
       <c r="S3">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.54</v>
       </c>
@@ -703,8 +724,11 @@
       <c r="S4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.59</v>
       </c>
@@ -762,8 +786,11 @@
       <c r="S5">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.43</v>
       </c>
@@ -822,8 +849,11 @@
       <c r="S6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.48</v>
       </c>
@@ -882,8 +912,11 @@
       <c r="S7">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.52</v>
       </c>
@@ -942,8 +975,11 @@
       <c r="S8">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.56</v>
       </c>
@@ -1001,8 +1037,11 @@
       <c r="S9">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.4</v>
       </c>
@@ -1061,8 +1100,11 @@
       <c r="S10">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.45</v>
       </c>
@@ -1121,8 +1163,11 @@
       <c r="S11">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.49</v>
       </c>
@@ -1181,8 +1226,11 @@
       <c r="S12">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.54</v>
       </c>
@@ -1240,8 +1288,11 @@
       <c r="S13">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.38</v>
       </c>
@@ -1300,8 +1351,11 @@
       <c r="S14">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.41</v>
       </c>
@@ -1360,8 +1414,11 @@
       <c r="S15">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.45</v>
       </c>
@@ -1420,8 +1477,11 @@
       <c r="S16">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.51</v>
       </c>
@@ -1478,6 +1538,9 @@
       </c>
       <c r="S17">
         <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/sidis/expdata/3709.xlsx
+++ b/database/sidis/expdata/3709.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D0C583-F8EE-6F4F-BF17-B6B951A52EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78350027-520B-644D-9CE1-C856818296B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="4480" windowWidth="28040" windowHeight="16440" xr2:uid="{C8C41E5D-5BE7-6B4A-997B-EAAF88C6DC20}"/>
+    <workbookView xWindow="2440" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{C8C41E5D-5BE7-6B4A-997B-EAAF88C6DC20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE20D61-FF7F-0B46-AC2B-00D238E0F2AD}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,6 +1543,3018 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2.1</v>
+      </c>
+      <c r="B18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H18">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="I18">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>N19</f>
+        <v>0.23</v>
+      </c>
+      <c r="P18">
+        <v>0.2</v>
+      </c>
+      <c r="Q18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S18">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2.39</v>
+      </c>
+      <c r="B19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.23</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O20" si="4">N20</f>
+        <v>0.36</v>
+      </c>
+      <c r="P19">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="B20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D20">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.441</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.36</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="P20">
+        <v>0.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S20">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2.73</v>
+      </c>
+      <c r="B21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="I21">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0.54</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R21">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S21">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.89</v>
+      </c>
+      <c r="B22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.434</v>
+      </c>
+      <c r="D22">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="H22">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="I22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>N23</f>
+        <v>0.23</v>
+      </c>
+      <c r="P22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q22">
+        <v>0.37</v>
+      </c>
+      <c r="R22">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S22">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2.14</v>
+      </c>
+      <c r="B23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>-2.8199999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.23</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O24" si="5">N24</f>
+        <v>0.36</v>
+      </c>
+      <c r="P23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q23">
+        <v>0.37</v>
+      </c>
+      <c r="R23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S23">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.53</v>
+      </c>
+      <c r="D24">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="H24">
+        <v>3.39E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.36</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0.54</v>
+      </c>
+      <c r="P24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q24">
+        <v>0.37</v>
+      </c>
+      <c r="R24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S24">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>-0.09</v>
+      </c>
+      <c r="H25">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="I25">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0.54</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q25">
+        <v>0.37</v>
+      </c>
+      <c r="R25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S25">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1.83</v>
+      </c>
+      <c r="B26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.42</v>
+      </c>
+      <c r="D26">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>-0.1046</v>
+      </c>
+      <c r="H26">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>N27</f>
+        <v>0.23</v>
+      </c>
+      <c r="P26">
+        <v>0.37</v>
+      </c>
+      <c r="Q26">
+        <v>0.49</v>
+      </c>
+      <c r="R26">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S26">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1.99</v>
+      </c>
+      <c r="B27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="H27">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="I27">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0.23</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O28" si="6">N28</f>
+        <v>0.36</v>
+      </c>
+      <c r="P27">
+        <v>0.37</v>
+      </c>
+      <c r="Q27">
+        <v>0.49</v>
+      </c>
+      <c r="R27">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S27">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.502</v>
+      </c>
+      <c r="D28">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.443</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H28">
+        <v>5.45E-2</v>
+      </c>
+      <c r="I28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0.36</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="P28">
+        <v>0.37</v>
+      </c>
+      <c r="Q28">
+        <v>0.49</v>
+      </c>
+      <c r="R28">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S28">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2.38</v>
+      </c>
+      <c r="B29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D29">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="H29">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0.54</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>0.37</v>
+      </c>
+      <c r="Q29">
+        <v>0.49</v>
+      </c>
+      <c r="R29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.78</v>
+      </c>
+      <c r="B30">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I30">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>N31</f>
+        <v>0.23</v>
+      </c>
+      <c r="P30">
+        <v>0.49</v>
+      </c>
+      <c r="Q30">
+        <v>0.7</v>
+      </c>
+      <c r="R30">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S30">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1.87</v>
+      </c>
+      <c r="B31">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>-4.4600000000000001E-2</v>
+      </c>
+      <c r="H31">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0.23</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O32" si="7">N32</f>
+        <v>0.36</v>
+      </c>
+      <c r="P31">
+        <v>0.49</v>
+      </c>
+      <c r="Q31">
+        <v>0.7</v>
+      </c>
+      <c r="R31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S31">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2.02</v>
+      </c>
+      <c r="B32">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.443</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <v>5.67E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="I32">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0.36</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="P32">
+        <v>0.49</v>
+      </c>
+      <c r="Q32">
+        <v>0.7</v>
+      </c>
+      <c r="R32">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S32">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2.29</v>
+      </c>
+      <c r="B33">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.53</v>
+      </c>
+      <c r="D33">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E33">
+        <v>0.754</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="H33">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="I33">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.54</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>0.49</v>
+      </c>
+      <c r="Q33">
+        <v>0.7</v>
+      </c>
+      <c r="R33">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S33">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2.86</v>
+      </c>
+      <c r="B34">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.69E-2</v>
+      </c>
+      <c r="I34">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>N35</f>
+        <v>0.23</v>
+      </c>
+      <c r="P34">
+        <v>0.2</v>
+      </c>
+      <c r="Q34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R34">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3.18</v>
+      </c>
+      <c r="B35">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="H35">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0.23</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O36" si="8">N36</f>
+        <v>0.36</v>
+      </c>
+      <c r="P35">
+        <v>0.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R35">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3.26</v>
+      </c>
+      <c r="B36">
+        <v>0.115</v>
+      </c>
+      <c r="C36">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D36">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.441</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="I36">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0.36</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>0.54</v>
+      </c>
+      <c r="P36">
+        <v>0.2</v>
+      </c>
+      <c r="Q36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R36">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S36">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3.53</v>
+      </c>
+      <c r="B37">
+        <v>0.115</v>
+      </c>
+      <c r="C37">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>0.09</v>
+      </c>
+      <c r="H37">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="I37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0.54</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>0.2</v>
+      </c>
+      <c r="Q37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R37">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="B38">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>-2.4500000000000001E-2</v>
+      </c>
+      <c r="H38">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="I38">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>N39</f>
+        <v>0.23</v>
+      </c>
+      <c r="P38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q38">
+        <v>0.37</v>
+      </c>
+      <c r="R38">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2.81</v>
+      </c>
+      <c r="B39">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D39">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H39">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="I39">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0.23</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O40" si="9">N40</f>
+        <v>0.36</v>
+      </c>
+      <c r="P39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q39">
+        <v>0.37</v>
+      </c>
+      <c r="R39">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3.03</v>
+      </c>
+      <c r="B40">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.442</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <v>-1E-3</v>
+      </c>
+      <c r="H40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I40">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0.36</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>0.54</v>
+      </c>
+      <c r="P40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q40">
+        <v>0.37</v>
+      </c>
+      <c r="R40">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3.21</v>
+      </c>
+      <c r="B41">
+        <v>0.115</v>
+      </c>
+      <c r="C41">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>0.111</v>
+      </c>
+      <c r="H41">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="I41">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0.54</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q41">
+        <v>0.37</v>
+      </c>
+      <c r="R41">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2.41</v>
+      </c>
+      <c r="B42">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>0.05</v>
+      </c>
+      <c r="H42">
+        <v>0.03</v>
+      </c>
+      <c r="I42">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f>N43</f>
+        <v>0.23</v>
+      </c>
+      <c r="P42">
+        <v>0.37</v>
+      </c>
+      <c r="Q42">
+        <v>0.49</v>
+      </c>
+      <c r="R42">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B43">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="H43">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I43">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0.23</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O44" si="10">N44</f>
+        <v>0.36</v>
+      </c>
+      <c r="P43">
+        <v>0.37</v>
+      </c>
+      <c r="Q43">
+        <v>0.49</v>
+      </c>
+      <c r="R43">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2.84</v>
+      </c>
+      <c r="B44">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.441</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="H44">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="I44">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0.36</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>0.54</v>
+      </c>
+      <c r="P44">
+        <v>0.37</v>
+      </c>
+      <c r="Q44">
+        <v>0.49</v>
+      </c>
+      <c r="R44">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3.11</v>
+      </c>
+      <c r="B45">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D45">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="H45">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="I45">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0.54</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>0.37</v>
+      </c>
+      <c r="Q45">
+        <v>0.49</v>
+      </c>
+      <c r="R45">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2.38</v>
+      </c>
+      <c r="B46">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E46">
+        <v>0.151</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <v>3.56E-2</v>
+      </c>
+      <c r="H46">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I46">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f>N47</f>
+        <v>0.23</v>
+      </c>
+      <c r="P46">
+        <v>0.49</v>
+      </c>
+      <c r="Q46">
+        <v>0.7</v>
+      </c>
+      <c r="R46">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2.4</v>
+      </c>
+      <c r="B47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E47">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="H47">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="I47">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0.23</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47:O48" si="11">N48</f>
+        <v>0.36</v>
+      </c>
+      <c r="P47">
+        <v>0.49</v>
+      </c>
+      <c r="Q47">
+        <v>0.7</v>
+      </c>
+      <c r="R47">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B48">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E48">
+        <v>0.441</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="I48">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0.36</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="11"/>
+        <v>0.54</v>
+      </c>
+      <c r="P48">
+        <v>0.49</v>
+      </c>
+      <c r="Q48">
+        <v>0.7</v>
+      </c>
+      <c r="R48">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2.98</v>
+      </c>
+      <c r="B49">
+        <v>0.115</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E49">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="H49">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="I49">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0.54</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>0.49</v>
+      </c>
+      <c r="Q49">
+        <v>0.7</v>
+      </c>
+      <c r="R49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.95</v>
+      </c>
+      <c r="B50">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D50">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I50">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>N51</f>
+        <v>0.23</v>
+      </c>
+      <c r="P50">
+        <v>0.2</v>
+      </c>
+      <c r="Q50">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R50">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S50">
+        <v>0.6</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5.26</v>
+      </c>
+      <c r="B51">
+        <v>0.214</v>
+      </c>
+      <c r="C51">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>1.67E-2</v>
+      </c>
+      <c r="H51">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="I51">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0.23</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51:O52" si="12">N52</f>
+        <v>0.36</v>
+      </c>
+      <c r="P51">
+        <v>0.2</v>
+      </c>
+      <c r="Q51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R51">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S51">
+        <v>0.6</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5.21</v>
+      </c>
+      <c r="B52">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.497</v>
+      </c>
+      <c r="D52">
+        <v>0.24</v>
+      </c>
+      <c r="E52">
+        <v>0.44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H52">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="I52">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0.36</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="12"/>
+        <v>0.54</v>
+      </c>
+      <c r="P52">
+        <v>0.2</v>
+      </c>
+      <c r="Q52">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R52">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S52">
+        <v>0.6</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5.42</v>
+      </c>
+      <c r="B53">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="H53">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="I53">
+        <v>1E-3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0.54</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>0.2</v>
+      </c>
+      <c r="Q53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R53">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S53">
+        <v>0.6</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="B54">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E54">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.24E-2</v>
+      </c>
+      <c r="I54">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>N55</f>
+        <v>0.23</v>
+      </c>
+      <c r="P54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q54">
+        <v>0.37</v>
+      </c>
+      <c r="R54">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.6</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="B55">
+        <v>0.21</v>
+      </c>
+      <c r="C55">
+        <v>0.43</v>
+      </c>
+      <c r="D55">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="H55">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="I55">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0.23</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ref="O55:O56" si="13">N56</f>
+        <v>0.36</v>
+      </c>
+      <c r="P55">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q55">
+        <v>0.37</v>
+      </c>
+      <c r="R55">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S55">
+        <v>0.6</v>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="B56">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.439</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H56">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="I56">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0.36</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="13"/>
+        <v>0.54</v>
+      </c>
+      <c r="P56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q56">
+        <v>0.37</v>
+      </c>
+      <c r="R56">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.6</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4.93</v>
+      </c>
+      <c r="B57">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E57">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="H57">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="I57">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0.54</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q57">
+        <v>0.37</v>
+      </c>
+      <c r="R57">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S57">
+        <v>0.6</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4.38</v>
+      </c>
+      <c r="B58">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D58">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0.15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.58E-2</v>
+      </c>
+      <c r="I58">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>N59</f>
+        <v>0.23</v>
+      </c>
+      <c r="P58">
+        <v>0.37</v>
+      </c>
+      <c r="Q58">
+        <v>0.49</v>
+      </c>
+      <c r="R58">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S58">
+        <v>0.6</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4.38</v>
+      </c>
+      <c r="B59">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D59">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="H59">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="I59">
+        <v>1E-4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0.23</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59:O60" si="14">N60</f>
+        <v>0.36</v>
+      </c>
+      <c r="P59">
+        <v>0.37</v>
+      </c>
+      <c r="Q59">
+        <v>0.49</v>
+      </c>
+      <c r="R59">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S59">
+        <v>0.6</v>
+      </c>
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B60">
+        <v>0.21</v>
+      </c>
+      <c r="C60">
+        <v>0.432</v>
+      </c>
+      <c r="D60">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.438</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="H60">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="I60">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0.36</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="14"/>
+        <v>0.54</v>
+      </c>
+      <c r="P60">
+        <v>0.37</v>
+      </c>
+      <c r="Q60">
+        <v>0.49</v>
+      </c>
+      <c r="R60">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S60">
+        <v>0.6</v>
+      </c>
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4.84</v>
+      </c>
+      <c r="B61">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D61">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E61">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="H61">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.01</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0.54</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>0.37</v>
+      </c>
+      <c r="Q61">
+        <v>0.49</v>
+      </c>
+      <c r="R61">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S61">
+        <v>0.6</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4.33</v>
+      </c>
+      <c r="B62">
+        <v>0.2</v>
+      </c>
+      <c r="C62">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D62">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E62">
+        <v>0.153</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="I62">
+        <v>1.15E-2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f>N63</f>
+        <v>0.23</v>
+      </c>
+      <c r="P62">
+        <v>0.49</v>
+      </c>
+      <c r="Q62">
+        <v>0.7</v>
+      </c>
+      <c r="R62">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S62">
+        <v>0.6</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4.28</v>
+      </c>
+      <c r="B63">
+        <v>0.2</v>
+      </c>
+      <c r="C63">
+        <v>0.41</v>
+      </c>
+      <c r="D63">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E63">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="H63">
+        <v>3.15E-2</v>
+      </c>
+      <c r="I63">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0.23</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63:O64" si="15">N64</f>
+        <v>0.36</v>
+      </c>
+      <c r="P63">
+        <v>0.49</v>
+      </c>
+      <c r="Q63">
+        <v>0.7</v>
+      </c>
+      <c r="R63">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S63">
+        <v>0.6</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4.41</v>
+      </c>
+      <c r="B64">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D64">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E64">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="H64">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="I64">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0.36</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="15"/>
+        <v>0.54</v>
+      </c>
+      <c r="P64">
+        <v>0.49</v>
+      </c>
+      <c r="Q64">
+        <v>0.7</v>
+      </c>
+      <c r="R64">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S64">
+        <v>0.6</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4.82</v>
+      </c>
+      <c r="B65">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="D65">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E65">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="H65">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="I65">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0.54</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>0.49</v>
+      </c>
+      <c r="Q65">
+        <v>0.7</v>
+      </c>
+      <c r="R65">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S65">
+        <v>0.6</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
